--- a/fil.xlsx
+++ b/fil.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FR - CDG - Charles de Gaulle International Airport</t>
+          <t>CDG - Charles de Gaulle International Airport, FR</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CN - TAO - Qingdao Jiaodong International Airport</t>
+          <t>TAO - Qingdao Jiaodong International Airport, CN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IN - AMD - Sardar Vallabhbhai Patel International Airport</t>
+          <t>AMD - Sardar Vallabhbhai Patel International Airport, IN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>IN - BOM - Chhatrapati Shivaji International Airport</t>
+          <t>BOM - Chhatrapati Shivaji International Airport, IN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>IN - BHO - Raja Bhoj International Airport</t>
+          <t>BHO - Raja Bhoj International Airport, IN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IN - NAG - Dr. Babasaheb Ambedkar International Airport</t>
+          <t>NAG - Dr. Babasaheb Ambedkar International Airport, IN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LK - CMB - Bandaranaike International Colombo Airport</t>
+          <t>CMB - Bandaranaike International Colombo Airport, LK</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LK - HRI - Mattala Rajapaksa International Airport</t>
+          <t>HRI - Mattala Rajapaksa International Airport, LK</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>IN - CCU - Netaji Subhash Chandra Bose International Airport</t>
+          <t>CCU - Netaji Subhash Chandra Bose International Airport, IN</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IN - GAU - Lokpriya Gopinath Bordoloi International Airport</t>
+          <t>GAU - Lokpriya Gopinath Bordoloi International Airport, IN</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BD - CGP - Shah Amanat International Airport</t>
+          <t>CGP - Shah Amanat International Airport, BD</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BD - ZYL - Osmany International Airport</t>
+          <t>ZYL - Osmany International Airport, BD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BD - DAC - Hazrat Shahjalal International Airport</t>
+          <t>DAC - Hazrat Shahjalal International Airport, BD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>IN - ATQ - Sri Guru Ram Dass Jee International Airport</t>
+          <t>ATQ - Sri Guru Ram Dass Jee International Airport, IN</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>IN - DEL - Indira Gandhi International Airport</t>
+          <t>DEL - Indira Gandhi International Airport, IN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>IN - JAI - Jaipur International Airport</t>
+          <t>JAI - Jaipur International Airport, IN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IN - LKO - Chaudhary Charan Singh International Airport</t>
+          <t>LKO - Chaudhary Charan Singh International Airport, IN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IN - BLR - Kempegowda International Airport</t>
+          <t>BLR - Kempegowda International Airport, IN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>IN - CJB - Coimbatore International Airport</t>
+          <t>CJB - Coimbatore International Airport, IN</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>IN - COK - Cochin International Airport</t>
+          <t>COK - Cochin International Airport, IN</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>IN - CCJ - Calicut International Airport</t>
+          <t>CCJ - Calicut International Airport, IN</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>IN - HYD - Rajiv Gandhi International Airport</t>
+          <t>HYD - Rajiv Gandhi International Airport, IN</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>IN - CNN - Kannur International Airport</t>
+          <t>CNN - Kannur International Airport, IN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>IN - IXE - Mangalore International Airport</t>
+          <t>IXE - Mangalore International Airport, IN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>IN - MAA - Chennai International Airport</t>
+          <t>MAA - Chennai International Airport, IN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>IN - IXZ - Vir Savarkar International Airport</t>
+          <t>IXZ - Vir Savarkar International Airport, IN</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>IN - TRZ - Tiruchirappalli International Airport</t>
+          <t>TRZ - Tiruchirappalli International Airport, IN</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>IN - TRV - Trivandrum International Airport</t>
+          <t>TRV - Trivandrum International Airport, IN</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CN - YNT - Yantai Penglai International Airport</t>
+          <t>YNT - Yantai Penglai International Airport, CN</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CN - PEK - Beijing Capital International Airport</t>
+          <t>PEK - Beijing Capital International Airport, CN</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CN - PKX - Beijing Daxing International Airport</t>
+          <t>PKX - Beijing Daxing International Airport, CN</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CN - ERL - Erenhot Saiwusu International Airport</t>
+          <t>ERL - Erenhot Saiwusu International Airport, CN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CN - HET - Baita International Airport</t>
+          <t>HET - Baita International Airport, CN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CN - SJW - Shijiazhuang Daguocun International Airport</t>
+          <t>SJW - Shijiazhuang Daguocun International Airport, CN</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CN - TSN - Tianjin Binhai International Airport</t>
+          <t>TSN - Tianjin Binhai International Airport, CN</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CN - CAN - Guangzhou Baiyun International Airport</t>
+          <t>CAN - Guangzhou Baiyun International Airport, CN</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CN - CSX - Changsha Huanghua International Airport</t>
+          <t>CSX - Changsha Huanghua International Airport, CN</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CN - KWL - Guilin Liangjiang International Airport</t>
+          <t>KWL - Guilin Liangjiang International Airport, CN</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CN - MXZ - Meizhou Meixian Changgangji International Airport</t>
+          <t>MXZ - Meizhou Meixian Changgangji International Airport, CN</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CN - SWA - Jieyang Chaoshan International Airport</t>
+          <t>SWA - Jieyang Chaoshan International Airport, CN</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CN - SZX - Shenzhen Bao'an International Airport</t>
+          <t>SZX - Shenzhen Bao'an International Airport, CN</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CN - CGO - Zhengzhou Xinzheng International Airport</t>
+          <t>CGO - Zhengzhou Xinzheng International Airport, CN</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CN - WUH - Wuhan Tianhe International Airport</t>
+          <t>WUH - Wuhan Tianhe International Airport, CN</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CN - HAK - Haikou Meilan International Airport</t>
+          <t>HAK - Haikou Meilan International Airport, CN</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CN - SYX - Sanya Phoenix International Airport</t>
+          <t>SYX - Sanya Phoenix International Airport, CN</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CN - INC - Yinchuan Hedong International Airport</t>
+          <t>INC - Yinchuan Hedong International Airport, CN</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CN - XIY - Xi'an Xianyang International Airport</t>
+          <t>XIY - Xi'an Xianyang International Airport, CN</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CN - KMG - Kunming Changshui International Airport</t>
+          <t>KMG - Kunming Changshui International Airport, CN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CN - XMN - Xiamen Gaoqi International Airport</t>
+          <t>XMN - Xiamen Gaoqi International Airport, CN</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CN - KHN - Nanchang Changbei International Airport</t>
+          <t>KHN - Nanchang Changbei International Airport, CN</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CN - FOC - Fuzhou Changle International Airport</t>
+          <t>FOC - Fuzhou Changle International Airport, CN</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CN - HGH - Hangzhou Xiaoshan International Airport</t>
+          <t>HGH - Hangzhou Xiaoshan International Airport, CN</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CN - NGB - Ningbo Lishe International Airport</t>
+          <t>NGB - Ningbo Lishe International Airport, CN</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CN - HFE - Hefei Luogang International Airport</t>
+          <t>HFE - Hefei Luogang International Airport, CN</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CN - PVG - Shanghai Pudong International Airport</t>
+          <t>PVG - Shanghai Pudong International Airport, CN</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CN - JJN - Quanzhou Jinjiang International Airport</t>
+          <t>JJN - Quanzhou Jinjiang International Airport, CN</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CN - SHA - Shanghai Hongqiao International Airport</t>
+          <t>SHA - Shanghai Hongqiao International Airport, CN</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CN - TXN - Tunxi International Airport</t>
+          <t>TXN - Tunxi International Airport, CN</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CN - WUX - Sunan Shuofang International Airport</t>
+          <t>WUX - Sunan Shuofang International Airport, CN</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CN - WNZ - Wenzhou Longwan International Airport</t>
+          <t>WNZ - Wenzhou Longwan International Airport, CN</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CN - CKG - Chongqing Jiangbei International Airport</t>
+          <t>CKG - Chongqing Jiangbei International Airport, CN</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CN - TFU - Chengdu Tianfu International Airport</t>
+          <t>TFU - Chengdu Tianfu International Airport, CN</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CN - CTU - Chengdu Shuangliu International Airport</t>
+          <t>CTU - Chengdu Shuangliu International Airport, CN</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CN - URC - Ürümqi Diwopu International Airport</t>
+          <t>URC - Ürümqi Diwopu International Airport, CN</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CN - MDG - Mudanjiang Hailang International Airport</t>
+          <t>MDG - Mudanjiang Hailang International Airport, CN</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CN - DLC - Dalian Zhoushuizi International Airport</t>
+          <t>DLC - Dalian Zhoushuizi International Airport, CN</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CN - SHE - Shenyang Taoxian International Airport</t>
+          <t>SHE - Shenyang Taoxian International Airport, CN</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
